--- a/dosyalar/uzfile/Davet Mektubu.xlsx
+++ b/dosyalar/uzfile/Davet Mektubu.xlsx
@@ -505,40 +505,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AT62"/>
+  <dimension ref="A3:AU62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AL7" sqref="AL7"/>
+      <selection activeCell="AQ12" sqref="AQ12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="44" width="2.85546875" style="1" customWidth="1"/>
+    <col min="1" max="43" width="2.85546875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="2.85546875" style="1" hidden="1" customWidth="1"/>
     <col min="45" max="45" width="14.5703125" style="1" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="15.42578125" style="15" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="8" style="1" customWidth="1"/>
+    <col min="47" max="47" width="8" style="1" hidden="1" customWidth="1"/>
     <col min="48" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AS3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="AT3" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AS4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
       <c r="AS5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
@@ -580,7 +578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -620,7 +618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -660,7 +658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -700,7 +698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="4"/>
       <c r="C10" s="19" t="str">
         <f>"Sayın "&amp;UPPER(AT4)&amp;IF(AT3=0,"(Sicil No: "&amp;AT11&amp;")"," ( TC No: "&amp;AT5&amp;" )")</f>
@@ -743,7 +741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="4"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -783,7 +781,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -820,7 +818,7 @@
       <c r="AH12" s="5"/>
       <c r="AI12" s="5"/>
     </row>
-    <row r="13" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B13" s="4"/>
       <c r="C13" s="20" t="str">
         <f>"İstanbul Cumhuriyet Başsavcılığı "&amp;AT6&amp;" soruşturma numaralı dosyada Ceza Muhakemesi Kanunu m.253 uyarınca uzlaştırmacı olarak görevlendirilmiş bulunmaktayım. "</f>
@@ -859,7 +857,7 @@
       <c r="AH13" s="4"/>
       <c r="AI13" s="4"/>
     </row>
-    <row r="14" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="20"/>
@@ -896,7 +894,7 @@
       <c r="AH14" s="4"/>
       <c r="AI14" s="4"/>
     </row>
-    <row r="15" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="20"/>
@@ -933,7 +931,7 @@
       <c r="AH15" s="4"/>
       <c r="AI15" s="4"/>
     </row>
-    <row r="16" spans="1:46" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:45" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="21" t="str">
